--- a/Test Data/Verify_40V_Calculation_For_PFI.xlsx
+++ b/Test Data/Verify_40V_Calculation_For_PFI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhosash\Desktop\31st Jan\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Color Codes</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Is Additional PLX supported</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -283,6 +289,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -298,8 +307,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +593,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,12 +607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -616,10 +625,10 @@
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -667,12 +676,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -693,8 +702,11 @@
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>28</v>
@@ -731,6 +743,9 @@
       <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="H8" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
@@ -766,6 +781,9 @@
       <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="H9" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -788,6 +806,9 @@
       </c>
       <c r="G10" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_40V_Calculation_For_PFI.xlsx
+++ b/Test Data/Verify_40V_Calculation_For_PFI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>40V (A)</t>
+    <t>40V Rail(A)</t>
   </si>
 </sst>
 </file>
@@ -292,6 +292,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -306,9 +309,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,12 +607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -625,10 +625,10 @@
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -676,12 +676,12 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -743,7 +743,7 @@
       <c r="G8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -781,7 +781,7 @@
       <c r="G9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="16" t="s">
         <v>36</v>
       </c>
     </row>
